--- a/salida/archivos-de-trabajo/sismos.xlsx
+++ b/salida/archivos-de-trabajo/sismos.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="353">
   <si>
     <t>Fecha</t>
   </si>
@@ -1078,6 +1078,9 @@
   </si>
   <si>
     <t xml:space="preserve"> VOLCAN ISLAS, JAPÓN REGIÓN </t>
+  </si>
+  <si>
+    <t>IdRegion</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1088,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1109,7 +1112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1132,16 +1135,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1446,13 +1463,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -1479,10 +1496,13 @@
       <c r="F1" s="1" t="s">
         <v>278</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>44880.88486111111</v>
+        <v>44885.636747685188</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1505,7 +1525,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>44880.88486111111</v>
+        <v>44885.628101851849</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1528,7 +1548,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>44880.88486111111</v>
+        <v>44885.608020833337</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1551,7 +1571,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>44880.88486111111</v>
+        <v>44885.575196759259</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -1574,7 +1594,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>44880.88486111111</v>
+        <v>44885.563356481478</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -1597,7 +1617,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>44880.88486111111</v>
+        <v>44885.491782407407</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -1620,7 +1640,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>44880.88486111111</v>
+        <v>44885.460555555554</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -1643,7 +1663,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>44880.88486111111</v>
+        <v>44885.45003472222</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -1666,7 +1686,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>44880.88486111111</v>
+        <v>44885.387083333335</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
@@ -1689,7 +1709,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>44880.88486111111</v>
+        <v>44885.371620370373</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
@@ -1712,7 +1732,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>44880.88486111111</v>
+        <v>44885.256689814814</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
@@ -1735,7 +1755,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>44880.88486111111</v>
+        <v>44885.255995370368</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
@@ -1758,7 +1778,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>44880.88486111111</v>
+        <v>44885.222569444442</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
@@ -1781,7 +1801,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>44880.88486111111</v>
+        <v>44885.182071759256</v>
       </c>
       <c r="B15" t="s">
         <v>49</v>
@@ -1804,7 +1824,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>44880.88486111111</v>
+        <v>44885.178310185183</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
@@ -1827,7 +1847,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>44880.88486111111</v>
+        <v>44885.140092592592</v>
       </c>
       <c r="B17" t="s">
         <v>56</v>
@@ -1850,7 +1870,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44880.88486111111</v>
+        <v>44885.13175925926</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -1873,7 +1893,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>44880.88486111111</v>
+        <v>44885.085682870369</v>
       </c>
       <c r="B19" t="s">
         <v>61</v>
@@ -1896,7 +1916,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>44880.88486111111</v>
+        <v>44885.076168981483</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -1919,7 +1939,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>44880.88486111111</v>
+        <v>44885.884861053244</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -1942,7 +1962,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>44880.88486111111</v>
+        <v>44884.625636574077</v>
       </c>
       <c r="B22" t="s">
         <v>70</v>
@@ -1965,7 +1985,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>44880.88486111111</v>
+        <v>44884.628009259257</v>
       </c>
       <c r="B23" t="s">
         <v>73</v>
@@ -1988,7 +2008,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>44880.88486111111</v>
+        <v>44884.604548611111</v>
       </c>
       <c r="B24" t="s">
         <v>76</v>
@@ -2011,7 +2031,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>44880.88486111111</v>
+        <v>44884.548807870371</v>
       </c>
       <c r="B25" t="s">
         <v>79</v>
@@ -2034,7 +2054,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>44880.88486111111</v>
+        <v>44884.563321759262</v>
       </c>
       <c r="B26" t="s">
         <v>82</v>
@@ -2057,7 +2077,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>44880.88486111111</v>
+        <v>44884.492476851854</v>
       </c>
       <c r="B27" t="s">
         <v>85</v>
@@ -2080,7 +2100,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>44880.88486111111</v>
+        <v>44884.460532407407</v>
       </c>
       <c r="B28" t="s">
         <v>88</v>
@@ -2103,7 +2123,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>44880.88486111111</v>
+        <v>44884.429201388892</v>
       </c>
       <c r="B29" t="s">
         <v>91</v>
@@ -2126,7 +2146,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>44880.88486111111</v>
+        <v>44884.387094907404</v>
       </c>
       <c r="B30" t="s">
         <v>93</v>
@@ -2149,7 +2169,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>44880.88486111111</v>
+        <v>44884.371550925927</v>
       </c>
       <c r="B31" t="s">
         <v>96</v>
@@ -2172,7 +2192,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>44880.88486111111</v>
+        <v>44884.257384259261</v>
       </c>
       <c r="B32" t="s">
         <v>99</v>
@@ -2195,7 +2215,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>44880.88486111111</v>
+        <v>44884.256689814814</v>
       </c>
       <c r="B33" t="s">
         <v>102</v>
@@ -2218,7 +2238,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>44880.88486111111</v>
+        <v>44884.222627314812</v>
       </c>
       <c r="B34" t="s">
         <v>105</v>
@@ -2241,7 +2261,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>44880.88486111111</v>
+        <v>44884.182106481479</v>
       </c>
       <c r="B35" t="s">
         <v>108</v>
@@ -2264,7 +2284,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>44880.88486111111</v>
+        <v>44884.176921296297</v>
       </c>
       <c r="B36" t="s">
         <v>110</v>
@@ -2287,7 +2307,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>44880.88486111111</v>
+        <v>44884.140115740738</v>
       </c>
       <c r="B37" t="s">
         <v>112</v>
@@ -2310,7 +2330,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>44880.88486111111</v>
+        <v>44884.131712962961</v>
       </c>
       <c r="B38" t="s">
         <v>114</v>
@@ -2333,7 +2353,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>44880.88486111111</v>
+        <v>44884.085648148146</v>
       </c>
       <c r="B39" t="s">
         <v>117</v>
@@ -2356,7 +2376,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>44880.88486111111</v>
+        <v>44884.055335648147</v>
       </c>
       <c r="B40" t="s">
         <v>119</v>
@@ -2379,7 +2399,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>44880.88486111111</v>
+        <v>44884.885555555556</v>
       </c>
       <c r="B41" t="s">
         <v>122</v>
@@ -2402,7 +2422,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>44880.88486111111</v>
+        <v>44883.635358796295</v>
       </c>
       <c r="B42" t="s">
         <v>125</v>
@@ -2425,7 +2445,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>44880.88486111111</v>
+        <v>44883.630185185182</v>
       </c>
       <c r="B43" t="s">
         <v>128</v>
@@ -2448,7 +2468,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>44880.88486111111</v>
+        <v>44883.608067129629</v>
       </c>
       <c r="B44" t="s">
         <v>130</v>
@@ -2471,7 +2491,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>44880.88486111111</v>
+        <v>44883.575162037036</v>
       </c>
       <c r="B45" t="s">
         <v>133</v>
@@ -2494,7 +2514,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>44880.88486111111</v>
+        <v>44883.563310185185</v>
       </c>
       <c r="B46" t="s">
         <v>136</v>
@@ -2517,7 +2537,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>44880.88486111111</v>
+        <v>44883.492476851854</v>
       </c>
       <c r="B47" t="s">
         <v>138</v>
@@ -2540,7 +2560,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>44880.88486111111</v>
+        <v>44883.459861111114</v>
       </c>
       <c r="B48" t="s">
         <v>141</v>
@@ -2563,7 +2583,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>44880.88486111111</v>
+        <v>44883.449363425927</v>
       </c>
       <c r="B49" t="s">
         <v>144</v>
@@ -2586,7 +2606,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>44880.88486111111</v>
+        <v>44883.385671296295</v>
       </c>
       <c r="B50" t="s">
         <v>147</v>
@@ -2609,7 +2629,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>44880.88486111111</v>
+        <v>44883.370937500003</v>
       </c>
       <c r="B51" t="s">
         <v>149</v>
@@ -2632,7 +2652,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>44880.88486111111</v>
+        <v>44883.256805555553</v>
       </c>
       <c r="B52" t="s">
         <v>152</v>
@@ -2655,7 +2675,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>44880.88486111111</v>
+        <v>44883.256689814814</v>
       </c>
       <c r="B53" t="s">
         <v>156</v>
@@ -2678,7 +2698,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>44880.88486111111</v>
+        <v>44883.223958333336</v>
       </c>
       <c r="B54" t="s">
         <v>158</v>
@@ -2701,7 +2721,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>44880.88486111111</v>
+        <v>44883.182141203702</v>
       </c>
       <c r="B55" t="s">
         <v>160</v>
@@ -2724,7 +2744,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>44880.88486111111</v>
+        <v>44883.179699074077</v>
       </c>
       <c r="B56" t="s">
         <v>162</v>
@@ -2747,7 +2767,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>44880.88486111111</v>
+        <v>44883.140115740738</v>
       </c>
       <c r="B57" t="s">
         <v>164</v>
@@ -2770,7 +2790,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>44880.88486111111</v>
+        <v>44883.138703703706</v>
       </c>
       <c r="B58" t="s">
         <v>167</v>
@@ -2793,7 +2813,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>44880.88486111111</v>
+        <v>44883.092627314814</v>
       </c>
       <c r="B59" t="s">
         <v>170</v>
@@ -2816,7 +2836,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>44880.88486111111</v>
+        <v>44883.076226851852</v>
       </c>
       <c r="B60" t="s">
         <v>173</v>
@@ -2839,7 +2859,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>44880.88486111111</v>
+        <v>44883.884837962964</v>
       </c>
       <c r="B61" t="s">
         <v>175</v>
@@ -2862,7 +2882,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>44880.88486111111</v>
+        <v>44882.635358796295</v>
       </c>
       <c r="B62" t="s">
         <v>178</v>
@@ -2885,7 +2905,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>44880.88486111111</v>
+        <v>44882.628761574073</v>
       </c>
       <c r="B63" t="s">
         <v>180</v>
@@ -2908,7 +2928,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>44880.88486111111</v>
+        <v>44882.608032407406</v>
       </c>
       <c r="B64" t="s">
         <v>183</v>
@@ -2931,7 +2951,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>44880.88486111111</v>
+        <v>44882.568599537037</v>
       </c>
       <c r="B65" t="s">
         <v>186</v>
@@ -2954,7 +2974,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>44880.88486111111</v>
+        <v>44882.563356481478</v>
       </c>
       <c r="B66" t="s">
         <v>188</v>
@@ -2977,7 +2997,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>44880.88486111111</v>
+        <v>44882.492476851854</v>
       </c>
       <c r="B67" t="s">
         <v>191</v>
@@ -3000,7 +3020,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>44880.88486111111</v>
+        <v>44882.46125</v>
       </c>
       <c r="B68" t="s">
         <v>194</v>
@@ -3023,7 +3043,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>44880.88486111111</v>
+        <v>44882.450729166667</v>
       </c>
       <c r="B69" t="s">
         <v>196</v>
@@ -3046,7 +3066,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>44880.88486111111</v>
+        <v>44882.387094907404</v>
       </c>
       <c r="B70" t="s">
         <v>199</v>
@@ -3069,7 +3089,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>44880.88486111111</v>
+        <v>44882.371608796297</v>
       </c>
       <c r="B71" t="s">
         <v>201</v>
@@ -3092,7 +3112,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>44880.88486111111</v>
+        <v>44882.26363425926</v>
       </c>
       <c r="B72" t="s">
         <v>204</v>
@@ -3115,7 +3135,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>44880.88486111111</v>
+        <v>44882.255995370368</v>
       </c>
       <c r="B73" t="s">
         <v>207</v>
@@ -3138,7 +3158,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>44880.88486111111</v>
+        <v>44882.223263888889</v>
       </c>
       <c r="B74" t="s">
         <v>210</v>
@@ -3161,7 +3181,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>44880.88486111111</v>
+        <v>44882.189363425925</v>
       </c>
       <c r="B75" t="s">
         <v>213</v>
@@ -3184,7 +3204,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>44880.88486111111</v>
+        <v>44882.178240740737</v>
       </c>
       <c r="B76" t="s">
         <v>216</v>
@@ -3207,7 +3227,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>44880.88486111111</v>
+        <v>44882.140046296299</v>
       </c>
       <c r="B77" t="s">
         <v>220</v>
@@ -3230,7 +3250,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>44880.88486111111</v>
+        <v>44882.145648148151</v>
       </c>
       <c r="B78" t="s">
         <v>222</v>
@@ -3253,7 +3273,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>44880.88486111111</v>
+        <v>44882.089155092595</v>
       </c>
       <c r="B79" t="s">
         <v>224</v>
@@ -3276,7 +3296,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>44880.88486111111</v>
+        <v>44882.076157407406</v>
       </c>
       <c r="B80" t="s">
         <v>226</v>
@@ -3299,7 +3319,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>44880.88486111111</v>
+        <v>44882.88622685185</v>
       </c>
       <c r="B81" t="s">
         <v>228</v>
@@ -3322,7 +3342,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>44880.88486111111</v>
+        <v>44881.636736111112</v>
       </c>
       <c r="B82" t="s">
         <v>231</v>
@@ -3345,7 +3365,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>44880.88486111111</v>
+        <v>44881.628449074073</v>
       </c>
       <c r="B83" t="s">
         <v>233</v>
@@ -3368,7 +3388,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>44880.88486111111</v>
+        <v>44881.608715277776</v>
       </c>
       <c r="B84" t="s">
         <v>235</v>
@@ -3391,7 +3411,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>44880.88486111111</v>
+        <v>44881.574502314812</v>
       </c>
       <c r="B85" t="s">
         <v>237</v>
@@ -3414,7 +3434,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>44880.88486111111</v>
+        <v>44881.563368055555</v>
       </c>
       <c r="B86" t="s">
         <v>241</v>
@@ -3437,7 +3457,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>44880.88486111111</v>
+        <v>44881.491828703707</v>
       </c>
       <c r="B87" t="s">
         <v>243</v>
@@ -3460,7 +3480,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>44880.88486111111</v>
+        <v>44881.461944444447</v>
       </c>
       <c r="B88" t="s">
         <v>246</v>
@@ -3483,7 +3503,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>44880.88486111111</v>
+        <v>44881.450729166667</v>
       </c>
       <c r="B89" t="s">
         <v>248</v>
@@ -3506,7 +3526,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>44880.88486111111</v>
+        <v>44881.387060185189</v>
       </c>
       <c r="B90" t="s">
         <v>251</v>
@@ -3529,7 +3549,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>44880.88486111111</v>
+        <v>44881.371631944443</v>
       </c>
       <c r="B91" t="s">
         <v>253</v>
@@ -3552,7 +3572,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>44880.88486111111</v>
+        <v>44881.256631944445</v>
       </c>
       <c r="B92" t="s">
         <v>256</v>
@@ -3575,7 +3595,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>44880.88486111111</v>
+        <v>44881.256701388891</v>
       </c>
       <c r="B93" t="s">
         <v>258</v>
@@ -3598,7 +3618,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>44880.88486111111</v>
+        <v>44881.223263888889</v>
       </c>
       <c r="B94" t="s">
         <v>261</v>
@@ -3621,7 +3641,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>44880.88486111111</v>
+        <v>44881.182106481479</v>
       </c>
       <c r="B95" t="s">
         <v>263</v>
@@ -3644,7 +3664,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>44880.88486111111</v>
+        <v>44881.17832175926</v>
       </c>
       <c r="B96" t="s">
         <v>265</v>
@@ -3667,7 +3687,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>44880.88486111111</v>
+        <v>44881.140115740738</v>
       </c>
       <c r="B97" t="s">
         <v>268</v>
@@ -3690,7 +3710,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>44880.88486111111</v>
+        <v>44881.131180555552</v>
       </c>
       <c r="B98" t="s">
         <v>270</v>
@@ -3713,7 +3733,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>44880.88486111111</v>
+        <v>44881.085694444446</v>
       </c>
       <c r="B99" t="s">
         <v>271</v>
@@ -3736,7 +3756,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>44880.88486111111</v>
+        <v>44881.076331018521</v>
       </c>
       <c r="B100" t="s">
         <v>274</v>
@@ -3759,7 +3779,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>44880.88486111111</v>
+        <v>44880.884837962964</v>
       </c>
       <c r="B101" t="s">
         <v>276</v>
